--- a/Debates_Stats.xlsx
+++ b/Debates_Stats.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandler\Desktop\Politics\Debate 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandler\Desktop\Politics\The Visible Primary\Debate 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF92425-34E6-4E07-B1BF-72C0DB271D9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB30E98-CDC4-4407-B51E-B4FBCC0AAE34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{0CBC7DD8-047A-4AAB-86E1-F69BADBB384A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{0CBC7DD8-047A-4AAB-86E1-F69BADBB384A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Debate 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Debate 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Debate 1 &amp; 3 Combo" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Debate 1'!$A$1:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Debate 1 &amp; 3 Combo'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Debate 3'!$A$1:$N$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Candidate</t>
   </si>
@@ -49,12 +53,6 @@
   </si>
   <si>
     <t>Post-debate unfavorability</t>
-  </si>
-  <si>
-    <t>Pre-debate polling</t>
-  </si>
-  <si>
-    <t>Post-debate polling</t>
   </si>
   <si>
     <t>Julian Castro</t>
@@ -188,13 +186,38 @@
   <si>
     <t>Net Approval Change</t>
   </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Share of Speaking</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Net Approval Change Debate 1</t>
+  </si>
+  <si>
+    <t>Share of Speaking Debate 1</t>
+  </si>
+  <si>
+    <t>Net Approval Combo</t>
+  </si>
+  <si>
+    <t>Speaking Combo</t>
+  </si>
+  <si>
+    <t>Change In Performance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -359,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -377,6 +400,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,8 +417,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9933FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF4343FF"/>
-      <color rgb="FF9933FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -528,7 +561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CFAD454-22D6-4765-B1D0-645F66239FA7}" type="CELLRANGE">
+                    <a:fld id="{5B6E660E-4898-45D8-9C1F-744B64CE243A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -567,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D27C1C5-50BF-4E85-864D-71FF885EB5D9}" type="CELLRANGE">
+                    <a:fld id="{8B1F9DD6-2AAD-4990-B884-94EC2A586EBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -597,8 +630,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5957813359585374E-2"/>
-                  <c:y val="-2.58008658008658E-2"/>
+                  <c:x val="-5.351459871014199E-2"/>
+                  <c:y val="-2.2914862914862968E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -606,7 +639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EB76534-7D2D-4A5E-AB59-EF833F1625D9}" type="CELLRANGE">
+                    <a:fld id="{A6B7B12D-F1C3-49F1-B5AC-475D634E3EAC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -636,8 +669,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.351459871014199E-2"/>
-                  <c:y val="-2.2914862914862968E-2"/>
+                  <c:x val="-4.7853845466298978E-2"/>
+                  <c:y val="-2.58008658008658E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -645,7 +678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B53614A-C5DB-4874-8DFA-B4127D68300E}" type="CELLRANGE">
+                    <a:fld id="{680E3B30-0121-4D81-8423-AE332A52E6F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -673,38 +706,9 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.7853845466298978E-2"/>
-                  <c:y val="-2.58008658008658E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{05C66919-3330-4F57-9232-A09CCBC15B8D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A491-45C0-8A33-AE89F6FE33F6}"/>
                 </c:ext>
@@ -714,8 +718,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5116101068671154E-2"/>
-                  <c:y val="2.6147186147186148E-2"/>
+                  <c:x val="-3.5074230409478935E-3"/>
+                  <c:y val="8.831168831168832E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -723,7 +727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69FD5AAB-039E-4057-89F6-C84320D23094}" type="CELLRANGE">
+                    <a:fld id="{8CD190AC-5A76-47F8-8D85-9A515DCEEB41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -751,10 +755,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A491-45C0-8A33-AE89F6FE33F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A491-45C0-8A33-AE89F6FE33F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A491-45C0-8A33-AE89F6FE33F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1293773155695726E-2"/>
-                  <c:y val="-2.0028860028860028E-2"/>
+                  <c:x val="-3.5743015367262078E-2"/>
+                  <c:y val="-2.8686868686868688E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -762,7 +796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73A1890E-3E9C-41B2-ADFD-A3018B32AF9A}" type="CELLRANGE">
+                    <a:fld id="{59C4A54A-7BFE-456C-ADD6-9B8ABD747457}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -784,26 +818,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-A491-45C0-8A33-AE89F6FE33F6}"/>
+                  <c16:uniqueId val="{00000009-A491-45C0-8A33-AE89F6FE33F6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-A491-45C0-8A33-AE89F6FE33F6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5074230409478935E-3"/>
-                  <c:y val="8.831168831168832E-3"/>
+                  <c:x val="-3.5957813359585374E-2"/>
+                  <c:y val="-2.58008658008658E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -811,7 +835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4934958-844F-43DD-B68D-5D3276157C8D}" type="CELLRANGE">
+                    <a:fld id="{A41806FA-6F2E-4FC0-8DE5-10576D2DB86E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -833,26 +857,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-A491-45C0-8A33-AE89F6FE33F6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-A491-45C0-8A33-AE89F6FE33F6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A491-45C0-8A33-AE89F6FE33F6}"/>
                 </c:ext>
               </c:extLst>
@@ -861,8 +865,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9587310899086166E-2"/>
-                  <c:y val="1.7489177489177488E-2"/>
+                  <c:x val="-2.5116101068671154E-2"/>
+                  <c:y val="2.6147186147186148E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -870,7 +874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87FB0F6C-ECC2-4B44-82F7-44B57F4C559F}" type="CELLRANGE">
+                    <a:fld id="{6BED5E27-ABC3-4BC5-BCCF-B7F7BDC727E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -898,9 +902,38 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1293773155695726E-2"/>
+                  <c:y val="-2.0028860028860028E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E89E847D-06E1-4F4A-825A-16C1ADEB7CD1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A491-45C0-8A33-AE89F6FE33F6}"/>
                 </c:ext>
@@ -928,30 +961,10 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-A491-45C0-8A33-AE89F6FE33F6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-A491-45C0-8A33-AE89F6FE33F6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5655692508727249E-2"/>
-                  <c:y val="-2.2914862914862916E-2"/>
+                  <c:x val="-6.9587310899086166E-2"/>
+                  <c:y val="1.7489177489177488E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -959,7 +972,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB9F29D4-2106-4211-9BCF-1BC8B7730092}" type="CELLRANGE">
+                    <a:fld id="{CC93E996-B2F7-4559-9AC2-59A0E19C2937}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -981,6 +994,26 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-A491-45C0-8A33-AE89F6FE33F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-A491-45C0-8A33-AE89F6FE33F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-A491-45C0-8A33-AE89F6FE33F6}"/>
                 </c:ext>
               </c:extLst>
@@ -989,8 +1022,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.1393514957493622E-2"/>
-                  <c:y val="-2.0028860028860028E-2"/>
+                  <c:x val="-2.5655692508727249E-2"/>
+                  <c:y val="-2.2914862914862916E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -998,7 +1031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FFF9508-5295-44BD-AADF-21F042657331}" type="CELLRANGE">
+                    <a:fld id="{5C5FF7B1-886E-4D94-B4E4-51F995858DF4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1028,8 +1061,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5743015367262078E-2"/>
-                  <c:y val="-2.8686868686868688E-2"/>
+                  <c:x val="-6.1393514957493622E-2"/>
+                  <c:y val="-2.0028860028860028E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1037,7 +1070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0878A49-95DE-49C2-9EB0-5BBCBC4634EA}" type="CELLRANGE">
+                    <a:fld id="{76C39AEA-2827-46A0-995E-2E3B47EE0F2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1123,7 +1156,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$21</c:f>
+              <c:f>'Debate 1'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1134,65 +1167,65 @@
                   <c:v>0.10899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9999999999999862E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9999999999999862E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.1999999999999887E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>2.3999999999999914E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1.1000000000000086E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9999999999999862E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.9999999999999862E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>-1.4000000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>-1.4000000000000021E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>-1.6999999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>-2.4999999999999984E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.5999999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>-3.5000000000000017E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.8000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>-5.5999999999999946E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-9.0000000000000024E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.11699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$21</c:f>
+              <c:f>'Debate 1'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1203,58 +1236,58 @@
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>4.3</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>13.6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1296,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$2:$B$21</c15:f>
+                <c15:f>'Debate 1'!$B$2:$B$21</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
@@ -1273,58 +1306,58 @@
                     <c:v>Warren</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Booker</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gabbard</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>de Blasio</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Klobuchar</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inslee</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Ryan</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Delaney</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>O'Rourke</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Harris</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Booker</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Gabbard</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="11">
                     <c:v>Buttigieg</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="12">
                     <c:v>Sanders</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>de Blasio</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Klobuchar</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="13">
                     <c:v>Bennet</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="14">
                     <c:v>Gillibrand</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="15">
                     <c:v>Yang</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Inslee</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="16">
                     <c:v>Swalwell</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ryan</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="17">
                     <c:v>Hickenlooper</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Delaney</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Biden</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Williamson</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>O'Rourke</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1591,7 +1624,2125 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t>Which</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t> candidates took advantage of their speaking time in Debate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Debate 3'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of Speaking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9933FF"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:srgbClr val="9933FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6372460033411657E-3"/>
+                  <c:y val="8.3743842364532011E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{12E575B0-B57D-4BDA-9040-8F4B339FC9E5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7127006826956847E-2"/>
+                  <c:y val="-2.4466338259441708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1499A2AB-28F6-42D1-BD90-C5F0175E0A81}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10524535123641823"/>
+                  <c:y val="-2.5725232621784345E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DA31E58D-DEB1-4AE5-A35B-E0DF5D14DB48}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7131677306379695E-2"/>
+                  <c:y val="1.6584564860426931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F06AD7AD-12FB-418B-B61D-0C3F4D9E4540}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1111561513738888E-2"/>
+                  <c:y val="-1.899288451012594E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{817F2DA9-1D59-4F7F-90BA-7128F7CD8F2C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1628455179133658E-2"/>
+                  <c:y val="1.6584564860426931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14211C18-8157-42A5-BEB3-05C608B71FE9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.745900112167047E-2"/>
+                  <c:y val="2.4794745484400658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5F9D5966-C3FD-41DA-B994-084604D326B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10369156707802982"/>
+                  <c:y val="1.1111111111111112E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2EECAE88-AEFB-4AB2-86D8-67B8791CCE17}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5524283345775357E-3"/>
+                  <c:y val="2.9009304871373334E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1519E29D-6714-4B6A-849E-A57D624CAC58}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7956300174608021E-2"/>
+                  <c:y val="2.2058018609742696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D82866E-EB5E-4084-9FF9-90E04F7957C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-893F-4600-9F09-76FA5BCF1CE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Debate 3'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4000000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6999999999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9999999999999714E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3999999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.9999999999999892E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Debate 3'!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13675889328063243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11620553359683794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10750988142292491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3003952569169967E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4308300395256918E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10988142292490119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13122529644268777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3241106719367585E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Debate 3'!$B$2:$B$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>Biden</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Booker</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Buttigieg</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Castro</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Harris</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Klobuchar</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>O'Rourke</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sanders</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Warren</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Yang</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-893F-4600-9F09-76FA5BCF1CE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641360608"/>
+        <c:axId val="1784183552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641360608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
+          <c:min val="-0.12000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t>Net Favorability</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t> Swing</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784183552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1784183552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="600000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641360608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+        <c:minorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t>How Debate Performances Have Changed Since the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t> First Debate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Debate 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF">
+                  <a:alpha val="14000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF">
+                    <a:alpha val="26000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Debate 1 &amp; 3 Combo'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1999999999999887E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5999999999999946E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9999999999999862E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3999999999999914E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000086E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Debate 1 &amp; 3 Combo'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11097099621689786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12988650693568729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14856429463171036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16978776529338327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11727616645649434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10718789407313997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13745271122320304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13108614232209739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7453183520599252E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13732833957553059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0EBB-431E-901A-8E46D04501E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Debate 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.182805606745965E-2"/>
+                  <c:y val="-1.5122720655768735E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB82A9CE-E3F2-4A1A-96E7-12D7D5FA65B5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8379963142906316E-3"/>
+                  <c:y val="-4.4597641062502046E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6CE074C1-E936-4C4E-AB33-2DBFA746567C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8056224515359081E-2"/>
+                  <c:y val="2.2044442720522004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{694A3A93-2A1B-4D82-B177-69BED3C97FC7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4827162562126609E-2"/>
+                  <c:y val="-2.062001067293974E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{54E0D7F2-57C8-4112-B1FC-474A848D6422}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0276288602222594E-2"/>
+                  <c:y val="-1.9869456152005895E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F7383B3C-F8A7-408D-B735-803ABC6214DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7623940801988035E-2"/>
+                  <c:y val="2.2044442720522004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6EEF1AA8-7846-4CBA-8E20-E660DD5A6A01}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8359998883118334E-2"/>
+                  <c:y val="-2.0620010672939698E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C7882348-B869-4F3F-B982-D07F7FEFDFC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6569079131066065E-2"/>
+                  <c:y val="-2.2174665926095339E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AFA3F27-839C-469F-8417-B7C65E109C68}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3989222091919363E-3"/>
+                  <c:y val="1.527646181156816E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86036521-B1E7-4123-AB8E-38326546C79C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7546769419779971E-2"/>
+                  <c:y val="-1.626969865281367E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0ADC3D47-041E-4A34-99D3-2E6E02FF68E9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-0EBB-431E-901A-8E46D04501E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Debate 1 &amp; 3 Combo'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.10200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.299999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4000000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3999999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6999999999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9999999999999892E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9999999999999714E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Debate 1 &amp; 3 Combo'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4308300395256918E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10750988142292491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13675889328063243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13122529644268777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3003952569169967E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11620553359683794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3241106719367585E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10988142292490119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Debate 1 &amp; 3 Combo'!$B$2:$B$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>Castro</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>O'Rourke</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Harris</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Biden</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Warren</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Klobuchar</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Booker</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buttigieg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Yang</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Sanders</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0EBB-431E-901A-8E46D04501E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641360608"/>
+        <c:axId val="1784183552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641360608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15400000000000003"/>
+          <c:min val="-0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t>Net Favorability</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t> Swing</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                  <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784183552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1784183552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.18000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="600000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641360608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+        <c:minorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2147,93 +4298,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>116500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>193430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>319454</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>18317</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Half Frame 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FC6B3-D0CB-41C3-828E-28EC68F160E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8372434" y="1378452"/>
-          <a:ext cx="202954" cy="222696"/>
-        </a:xfrm>
-        <a:prstGeom prst="halfFrame">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26734"/>
-            <a:gd name="adj2" fmla="val 24529"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>91168</xdr:colOff>
+      <xdr:colOff>357868</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:rowOff>45448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2262,159 +5372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>240785</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>445204</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65230</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Half Frame 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EFC518-C928-4DDE-9FF1-3D6A26EA956C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18574505" y="1558897"/>
-          <a:ext cx="204419" cy="213213"/>
-        </a:xfrm>
-        <a:prstGeom prst="halfFrame">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26734"/>
-            <a:gd name="adj2" fmla="val 24529"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>264094</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>486099</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Half Frame 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9660B-19BC-4A41-8EDD-0C33683864CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="18611150" y="4128696"/>
-          <a:ext cx="195334" cy="222005"/>
-        </a:xfrm>
-        <a:prstGeom prst="halfFrame">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26734"/>
-            <a:gd name="adj2" fmla="val 24529"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>604392</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>216798</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>65677</xdr:rowOff>
@@ -2481,13 +5445,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>590510</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>147073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>184559</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180584</xdr:rowOff>
@@ -2507,6 +5471,152 @@
         <a:xfrm rot="10800000">
           <a:off x="13728441" y="4278952"/>
           <a:ext cx="204963" cy="224011"/>
+        </a:xfrm>
+        <a:prstGeom prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Half Frame 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FC6B3-D0CB-41C3-828E-28EC68F160E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454560" y="1778390"/>
+          <a:ext cx="202954" cy="205887"/>
+        </a:xfrm>
+        <a:prstGeom prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Half Frame 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9660B-19BC-4A41-8EDD-0C33683864CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7447851" y="3717215"/>
+          <a:ext cx="195334" cy="222005"/>
         </a:xfrm>
         <a:prstGeom prst="halfFrame">
           <a:avLst>
@@ -3111,6 +6221,3398 @@
         </a:fontRef>
       </cdr:style>
     </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>434068</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C10CD8-40EF-49B6-ACE1-5B7A9C2EEB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07486</cdr:x>
+      <cdr:y>0.11513</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15226</cdr:x>
+      <cdr:y>0.33721</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA60012-02C8-4CC3-AE63-DCB6E7E7A208}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="18751471">
+          <a:off x="232996" y="749326"/>
+          <a:ext cx="977274" cy="491862"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>large</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>time hurt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02322</cdr:x>
+      <cdr:y>0.70651</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17984</cdr:x>
+      <cdr:y>0.81626</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4905DE75-2FBC-4C40-AF56-4AC2131905A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2640943">
+          <a:off x="147586" y="3109048"/>
+          <a:ext cx="995290" cy="482961"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>hurt despite</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>small</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80056</cdr:x>
+      <cdr:y>0.17697</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95718</cdr:x>
+      <cdr:y>0.28672</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6192019-8216-498C-867C-1007CE0006E5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2655970">
+          <a:off x="5204401" y="805264"/>
+          <a:ext cx="1018185" cy="499395"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>took advantage of</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>large</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50071</cdr:x>
+      <cdr:y>0.10774</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50071</cdr:x>
+      <cdr:y>0.88441</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374FB085-00D1-4A82-B3BD-1D373BF5AA25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3181892" y="499997"/>
+          <a:ext cx="0" cy="3604199"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80664</cdr:x>
+      <cdr:y>0.71292</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96326</cdr:x>
+      <cdr:y>0.82267</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F5175F-1F4E-4D50-AFE1-374BA2827915}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19034744">
+          <a:off x="5243929" y="3244025"/>
+          <a:ext cx="1018185" cy="499394"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>took advantage of</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>small</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81697</cdr:x>
+      <cdr:y>0.23426</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85191</cdr:x>
+      <cdr:y>0.27642</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Half Frame 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6225B076-9183-4178-B4C4-DBD76FD7961C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="5204887" y="1073932"/>
+          <a:ext cx="195627" cy="222006"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82198</cdr:x>
+      <cdr:y>0.67491</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85403</cdr:x>
+      <cdr:y>0.72154</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Half Frame 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB915735-DE58-4D4B-B968-0150D30565D2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="5223536" y="3131983"/>
+          <a:ext cx="203649" cy="216391"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12866</cdr:x>
+      <cdr:y>0.23334</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1606</cdr:x>
+      <cdr:y>0.27771</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Half Frame 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FC6B3-D0CB-41C3-828E-28EC68F160E1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="817606" y="1082840"/>
+          <a:ext cx="202954" cy="205887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14109</cdr:x>
+      <cdr:y>0.67864</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17603</cdr:x>
+      <cdr:y>0.72074</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Half Frame 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9660B-19BC-4A41-8EDD-0C33683864CD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="909957" y="3135965"/>
+          <a:ext cx="195334" cy="222005"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C69986B-C7D8-49FC-8A93-57DFF5472BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Freeform: Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DCEC82-C5E1-4044-BDA8-21BFBA33008E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18722340" y="2110740"/>
+          <a:ext cx="1196340" cy="449580"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 861060 w 861060"/>
+            <a:gd name="connsiteY0" fmla="*/ 121049 h 402989"/>
+            <a:gd name="connsiteX1" fmla="*/ 502920 w 861060"/>
+            <a:gd name="connsiteY1" fmla="*/ 14369 h 402989"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 861060"/>
+            <a:gd name="connsiteY2" fmla="*/ 402989 h 402989"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="861060" h="402989">
+              <a:moveTo>
+                <a:pt x="861060" y="121049"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="753745" y="44214"/>
+                <a:pt x="646430" y="-32621"/>
+                <a:pt x="502920" y="14369"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="359410" y="61359"/>
+                <a:pt x="13970" y="353459"/>
+                <a:pt x="0" y="402989"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Freeform: Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C550B547-51BE-4207-BED3-EB6F34CFF0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18364200" y="1981200"/>
+          <a:ext cx="693420" cy="419100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 634118 w 634118"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 419100"/>
+            <a:gd name="connsiteX1" fmla="*/ 382658 w 634118"/>
+            <a:gd name="connsiteY1" fmla="*/ 365760 h 419100"/>
+            <a:gd name="connsiteX2" fmla="*/ 1658 w 634118"/>
+            <a:gd name="connsiteY2" fmla="*/ 419100 h 419100"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="634118" h="419100">
+              <a:moveTo>
+                <a:pt x="634118" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="561093" y="147955"/>
+                <a:pt x="488068" y="295910"/>
+                <a:pt x="382658" y="365760"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="277248" y="435610"/>
+                <a:pt x="-25012" y="397510"/>
+                <a:pt x="1658" y="419100"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Freeform: Shape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E5F4A1-D30B-4543-8A15-7ABF1066CF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18288000" y="2072640"/>
+          <a:ext cx="326000" cy="769620"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 326000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 693420"/>
+            <a:gd name="connsiteX1" fmla="*/ 320040 w 326000"/>
+            <a:gd name="connsiteY1" fmla="*/ 236220 h 693420"/>
+            <a:gd name="connsiteX2" fmla="*/ 198120 w 326000"/>
+            <a:gd name="connsiteY2" fmla="*/ 693420 h 693420"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="326000" h="693420">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="143510" y="60325"/>
+                <a:pt x="287020" y="120650"/>
+                <a:pt x="320040" y="236220"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="353060" y="351790"/>
+                <a:pt x="240030" y="604520"/>
+                <a:pt x="198120" y="693420"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33369</cdr:x>
+      <cdr:y>0.13785</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52766</cdr:x>
+      <cdr:y>0.25035</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B578EBB1-FA07-4544-8023-D26371A20D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2390140" y="759460"/>
+          <a:ext cx="1389380" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07486</cdr:x>
+      <cdr:y>0.11513</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15226</cdr:x>
+      <cdr:y>0.33721</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA60012-02C8-4CC3-AE63-DCB6E7E7A208}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="18751471">
+          <a:off x="232996" y="749326"/>
+          <a:ext cx="977274" cy="491862"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>large</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>time hurt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02322</cdr:x>
+      <cdr:y>0.70651</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17984</cdr:x>
+      <cdr:y>0.81626</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4905DE75-2FBC-4C40-AF56-4AC2131905A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2640943">
+          <a:off x="147586" y="3109048"/>
+          <a:ext cx="995290" cy="482961"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>hurt despite</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>small</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80056</cdr:x>
+      <cdr:y>0.17697</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95718</cdr:x>
+      <cdr:y>0.28672</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6192019-8216-498C-867C-1007CE0006E5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2655970">
+          <a:off x="5204401" y="805264"/>
+          <a:ext cx="1018185" cy="499395"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>took advantage of</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>large</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49433</cdr:x>
+      <cdr:y>0.09218</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49468</cdr:x>
+      <cdr:y>0.89073</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374FB085-00D1-4A82-B3BD-1D373BF5AA25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3540766" y="507833"/>
+          <a:ext cx="2534" cy="4399447"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80664</cdr:x>
+      <cdr:y>0.71292</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96326</cdr:x>
+      <cdr:y>0.82267</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F5175F-1F4E-4D50-AFE1-374BA2827915}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19034744">
+          <a:off x="5243929" y="3244025"/>
+          <a:ext cx="1018185" cy="499394"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>took advantage of</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>small</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t> speaking time</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45</cdr:x>
+      <cdr:y>0.62517</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48191</cdr:x>
+      <cdr:y>0.70954</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321D6B3C-C667-47A9-BB94-CEF37C2667C6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="3223260" y="3444240"/>
+          <a:ext cx="228600" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13936</cdr:x>
+      <cdr:y>0.3278</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70426</cdr:x>
+      <cdr:y>0.58645</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="Freeform: Shape 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD6AE95-F52C-4EE9-9B2D-1234EC3876F9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="998220" y="1805940"/>
+          <a:ext cx="4046220" cy="1424940"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4046220"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1343400"/>
+            <a:gd name="connsiteX1" fmla="*/ 1912620 w 4046220"/>
+            <a:gd name="connsiteY1" fmla="*/ 1249680 h 1343400"/>
+            <a:gd name="connsiteX2" fmla="*/ 4046220 w 4046220"/>
+            <a:gd name="connsiteY2" fmla="*/ 1234440 h 1343400"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4046220" h="1343400">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="619125" y="521970"/>
+                <a:pt x="1238250" y="1043940"/>
+                <a:pt x="1912620" y="1249680"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2586990" y="1455420"/>
+                <a:pt x="3615690" y="1262380"/>
+                <a:pt x="4046220" y="1234440"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55087</cdr:x>
+      <cdr:y>0.25035</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76809</cdr:x>
+      <cdr:y>0.41566</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="21" name="Freeform: Shape 20">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AF991D-E60C-46AD-AA1A-986E3F245011}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3945786" y="1379220"/>
+          <a:ext cx="1555854" cy="910759"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1555854 w 1555854"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 910759"/>
+            <a:gd name="connsiteX1" fmla="*/ 1212954 w 1555854"/>
+            <a:gd name="connsiteY1" fmla="*/ 640080 h 910759"/>
+            <a:gd name="connsiteX2" fmla="*/ 580494 w 1555854"/>
+            <a:gd name="connsiteY2" fmla="*/ 891540 h 910759"/>
+            <a:gd name="connsiteX3" fmla="*/ 1374 w 1555854"/>
+            <a:gd name="connsiteY3" fmla="*/ 883920 h 910759"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1555854" h="910759">
+              <a:moveTo>
+                <a:pt x="1555854" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1465684" y="245745"/>
+                <a:pt x="1375514" y="491490"/>
+                <a:pt x="1212954" y="640080"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1050394" y="788670"/>
+                <a:pt x="782424" y="850900"/>
+                <a:pt x="580494" y="891540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="378564" y="932180"/>
+                <a:pt x="-26566" y="897890"/>
+                <a:pt x="1374" y="883920"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50426</cdr:x>
+      <cdr:y>0.29184</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52128</cdr:x>
+      <cdr:y>0.38036</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DE94DE-C4BA-4CC4-89A6-E362D1DE2FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3611880" y="1607820"/>
+          <a:ext cx="121920" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49468</cdr:x>
+      <cdr:y>0.43015</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59362</cdr:x>
+      <cdr:y>0.51867</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="27" name="Freeform: Shape 26">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C9C30D-8A1B-4FB1-92D9-C929538ADBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3543300" y="2369820"/>
+          <a:ext cx="708660" cy="487680"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 708660"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 487680"/>
+            <a:gd name="connsiteX1" fmla="*/ 228600 w 708660"/>
+            <a:gd name="connsiteY1" fmla="*/ 342900 h 487680"/>
+            <a:gd name="connsiteX2" fmla="*/ 708660 w 708660"/>
+            <a:gd name="connsiteY2" fmla="*/ 487680 h 487680"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="708660" h="487680">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="55245" y="130810"/>
+                <a:pt x="110490" y="261620"/>
+                <a:pt x="228600" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="346710" y="424180"/>
+                <a:pt x="623570" y="468630"/>
+                <a:pt x="708660" y="487680"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83332</cdr:x>
+      <cdr:y>0.22775</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86432</cdr:x>
+      <cdr:y>0.26326</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="29" name="Half Frame 28">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6225B076-9183-4178-B4C4-DBD76FD7961C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="5982127" y="1241572"/>
+          <a:ext cx="195627" cy="222006"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81543</cdr:x>
+      <cdr:y>0.68606</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84386</cdr:x>
+      <cdr:y>0.72534</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="30" name="Half Frame 29">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB915735-DE58-4D4B-B968-0150D30565D2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="5840756" y="3779683"/>
+          <a:ext cx="203649" cy="216391"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12478</cdr:x>
+      <cdr:y>0.22974</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15312</cdr:x>
+      <cdr:y>0.26712</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="31" name="Half Frame 30">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FC6B3-D0CB-41C3-828E-28EC68F160E1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="893806" y="1265720"/>
+          <a:ext cx="202954" cy="205887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13262</cdr:x>
+      <cdr:y>0.6809</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16362</cdr:x>
+      <cdr:y>0.71636</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="32" name="Half Frame 31">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9660B-19BC-4A41-8EDD-0C33683864CD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="963298" y="3737945"/>
+          <a:ext cx="195334" cy="222005"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="halfFrame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26734"/>
+            <a:gd name="adj2" fmla="val 24529"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19574</cdr:x>
+      <cdr:y>0.41355</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95851</cdr:x>
+      <cdr:y>0.69156</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="34" name="Freeform: Shape 33">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6814899D-D9B1-4D51-8A5F-692F6A2BACD7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1402080" y="2278380"/>
+          <a:ext cx="5463540" cy="1531620"/>
+        </a:xfrm>
+        <a:custGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 5402580 w 5402580"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1552840"/>
+            <a:gd name="connsiteX1" fmla="*/ 4610100 w 5402580"/>
+            <a:gd name="connsiteY1" fmla="*/ 1074420 h 1552840"/>
+            <a:gd name="connsiteX2" fmla="*/ 2011680 w 5402580"/>
+            <a:gd name="connsiteY2" fmla="*/ 1539240 h 1552840"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 5402580"/>
+            <a:gd name="connsiteY3" fmla="*/ 594360 h 1552840"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5402580" h="1552840">
+              <a:moveTo>
+                <a:pt x="5402580" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="5288915" y="408940"/>
+                <a:pt x="5175250" y="817880"/>
+                <a:pt x="4610100" y="1074420"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4044950" y="1330960"/>
+                <a:pt x="2780030" y="1619250"/>
+                <a:pt x="2011680" y="1539240"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1243330" y="1459230"/>
+                <a:pt x="200660" y="727710"/>
+                <a:pt x="0" y="594360"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="41275">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -3414,24 +9916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0AB15E-813B-4023-9705-DA9A2DFF6F6B}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -3452,30 +9953,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <v>29.3</v>
@@ -3499,16 +10000,22 @@
         <f>(H2-G2)*0.01</f>
         <v>0.15400000000000005</v>
       </c>
+      <c r="J2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.11097099621689786</v>
+      </c>
       <c r="L2">
-        <v>8.8000000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9">
         <v>63.4</v>
@@ -3532,8 +10039,14 @@
         <f>(H3-G3)*0.01</f>
         <v>0.10899999999999999</v>
       </c>
+      <c r="J3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.11727616645649434</v>
+      </c>
       <c r="L3">
-        <v>9.3000000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3541,32 +10054,38 @@
         <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9">
-        <v>56.2</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9">
-        <v>66.8</v>
+        <v>56.4</v>
       </c>
       <c r="E4" s="9">
-        <v>11.3</v>
+        <v>13.1</v>
       </c>
       <c r="F4" s="9">
-        <v>12.7</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9">
-        <v>44.900000000000006</v>
+        <v>33.9</v>
       </c>
       <c r="H4" s="9">
-        <v>54.099999999999994</v>
+        <v>40.4</v>
       </c>
       <c r="I4" s="11">
         <f>(H4-G4)*0.01</f>
-        <v>9.1999999999999887E-2</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>10.9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.13745271122320304</v>
       </c>
       <c r="L4">
-        <v>11.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3574,32 +10093,38 @@
         <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9">
-        <v>47</v>
+        <v>17.7</v>
       </c>
       <c r="D5" s="9">
-        <v>56.4</v>
+        <v>29.7</v>
       </c>
       <c r="E5" s="9">
-        <v>13.1</v>
+        <v>11.9</v>
       </c>
       <c r="F5" s="9">
-        <v>16</v>
+        <v>18.3</v>
       </c>
       <c r="G5" s="9">
-        <v>33.9</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="H5" s="9">
-        <v>40.4</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="I5" s="11">
         <f>(H5-G5)*0.01</f>
-        <v>6.5000000000000002E-2</v>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="J5">
+        <v>6.6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.3228247162673394E-2</v>
       </c>
       <c r="L5">
-        <v>10.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3610,29 +10135,35 @@
         <v>28</v>
       </c>
       <c r="C6" s="9">
-        <v>17.7</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D6" s="9">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="E6" s="9">
-        <v>11.9</v>
+        <v>21.2</v>
       </c>
       <c r="F6" s="9">
-        <v>18.3</v>
+        <v>30.4</v>
       </c>
       <c r="G6" s="9">
-        <v>5.7999999999999989</v>
+        <v>-2.0999999999999979</v>
       </c>
       <c r="H6" s="9">
-        <v>11.399999999999999</v>
+        <v>-1.6999999999999993</v>
       </c>
       <c r="I6" s="11">
         <f>(H6-G6)*0.01</f>
-        <v>5.5999999999999994E-2</v>
+        <v>3.9999999999999862E-3</v>
+      </c>
+      <c r="J6">
+        <v>5.6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.0617906683480447E-2</v>
       </c>
       <c r="L6">
-        <v>6.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3640,230 +10171,272 @@
         <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9">
-        <v>44.7</v>
+        <v>31.2</v>
       </c>
       <c r="D7" s="9">
-        <v>51.8</v>
+        <v>40.1</v>
       </c>
       <c r="E7" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="F7" s="9">
-        <v>14.2</v>
+        <v>11.3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>20.6</v>
       </c>
       <c r="G7" s="9">
-        <v>35.200000000000003</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>37.599999999999994</v>
+        <v>19.5</v>
       </c>
       <c r="I7" s="11">
         <f>(H7-G7)*0.01</f>
-        <v>2.3999999999999914E-2</v>
+        <v>-3.9999999999999862E-3</v>
+      </c>
+      <c r="J7">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.10718789407313997</v>
       </c>
       <c r="L7">
-        <v>10.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9">
-        <v>74.3</v>
+        <v>16.8</v>
       </c>
       <c r="D8" s="9">
-        <v>75.400000000000006</v>
+        <v>25.9</v>
       </c>
       <c r="E8" s="9">
-        <v>17.600000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F8" s="9">
-        <v>17.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="G8" s="9">
-        <v>56.699999999999996</v>
+        <v>9.1000000000000014</v>
       </c>
       <c r="H8" s="9">
-        <v>57.800000000000004</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="I8" s="11">
         <f>(H8-G8)*0.01</f>
-        <v>1.1000000000000086E-2</v>
+        <v>-1.900000000000002E-2</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.3051702395964693E-2</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9">
-        <v>19.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E9" s="9">
-        <v>21.2</v>
+        <v>10.3</v>
       </c>
       <c r="F9" s="9">
-        <v>30.4</v>
+        <v>22.7</v>
       </c>
       <c r="G9" s="9">
-        <v>-2.0999999999999979</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="H9" s="9">
-        <v>-1.6999999999999993</v>
+        <v>5.1000000000000014</v>
       </c>
       <c r="I9" s="11">
         <f>(H9-G9)*0.01</f>
-        <v>3.9999999999999862E-3</v>
+        <v>-2.5999999999999978E-2</v>
+      </c>
+      <c r="J9">
+        <v>7.7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.7099621689785628E-2</v>
       </c>
       <c r="L9">
-        <v>5.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9">
-        <v>31.2</v>
+        <v>15.4</v>
       </c>
       <c r="D10" s="9">
-        <v>40.1</v>
+        <v>24.5</v>
       </c>
       <c r="E10" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>20.6</v>
+        <v>8.6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>21.5</v>
       </c>
       <c r="G10" s="9">
-        <v>19.899999999999999</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="H10" s="9">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="I10" s="11">
         <f>(H10-G10)*0.01</f>
-        <v>-3.9999999999999862E-3</v>
+        <v>-3.8000000000000006E-2</v>
+      </c>
+      <c r="J10">
+        <v>6.6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8.3228247162673394E-2</v>
       </c>
       <c r="L10">
-        <v>8.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9">
-        <v>16</v>
+        <v>48.4</v>
       </c>
       <c r="D11" s="9">
-        <v>25.5</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="F11" s="9">
-        <v>18.3</v>
+        <v>23.8</v>
       </c>
       <c r="G11" s="9">
-        <v>8.6</v>
+        <v>35.9</v>
       </c>
       <c r="H11" s="9">
-        <v>7.1999999999999993</v>
+        <v>24.2</v>
       </c>
       <c r="I11" s="11">
         <f>(H11-G11)*0.01</f>
-        <v>-1.4000000000000004E-2</v>
+        <v>-0.11699999999999999</v>
+      </c>
+      <c r="J11">
+        <v>10.3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.12988650693568729</v>
       </c>
       <c r="L11">
-        <v>8.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>33.700000000000003</v>
+        <v>56.2</v>
       </c>
       <c r="D12" s="9">
-        <v>40.200000000000003</v>
+        <v>66.8</v>
       </c>
       <c r="E12" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="F12" s="9">
         <v>12.7</v>
       </c>
-      <c r="F12" s="9">
-        <v>20.6</v>
-      </c>
       <c r="G12" s="9">
-        <v>21.000000000000004</v>
+        <v>44.900000000000006</v>
       </c>
       <c r="H12" s="9">
-        <v>19.600000000000001</v>
+        <v>54.099999999999994</v>
       </c>
       <c r="I12" s="11">
         <f>(H12-G12)*0.01</f>
-        <v>-1.4000000000000021E-2</v>
+        <v>9.1999999999999887E-2</v>
+      </c>
+      <c r="J12">
+        <v>11.9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.14856429463171036</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9">
-        <v>23.5</v>
+        <v>44.7</v>
       </c>
       <c r="D13" s="9">
-        <v>33.4</v>
+        <v>51.8</v>
       </c>
       <c r="E13" s="9">
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F13" s="9">
-        <v>19.899999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="G13" s="9">
-        <v>15.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H13" s="9">
-        <v>13.5</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="I13" s="11">
         <f>(H13-G13)*0.01</f>
-        <v>-1.6999999999999994E-2</v>
+        <v>2.3999999999999914E-2</v>
+      </c>
+      <c r="J13">
+        <v>10.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.13108614232209739</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3871,98 +10444,116 @@
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C14" s="9">
-        <v>16.8</v>
+        <v>74.3</v>
       </c>
       <c r="D14" s="9">
-        <v>25.9</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E14" s="9">
-        <v>7.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F14" s="9">
-        <v>18.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G14" s="9">
-        <v>9.1000000000000014</v>
+        <v>56.699999999999996</v>
       </c>
       <c r="H14" s="9">
-        <v>7.1999999999999993</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="I14" s="11">
         <f>(H14-G14)*0.01</f>
-        <v>-1.900000000000002E-2</v>
+        <v>1.1000000000000086E-2</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.13732833957553059</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="9">
-        <v>17.399999999999999</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="E15" s="9">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="F15" s="9">
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="G15" s="9">
-        <v>9.7999999999999989</v>
+        <v>8.6</v>
       </c>
       <c r="H15" s="9">
-        <v>7.3000000000000007</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="I15" s="11">
         <f>(H15-G15)*0.01</f>
-        <v>-2.4999999999999984E-2</v>
+        <v>-1.4000000000000004E-2</v>
+      </c>
+      <c r="J15">
+        <v>8.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.10112359550561797</v>
       </c>
       <c r="L15">
-        <v>4.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
-        <v>18</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D16" s="9">
-        <v>27.8</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E16" s="9">
-        <v>10.3</v>
+        <v>12.7</v>
       </c>
       <c r="F16" s="9">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="G16" s="9">
-        <v>7.6999999999999993</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="H16" s="9">
-        <v>5.1000000000000014</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I16" s="11">
         <f>(H16-G16)*0.01</f>
-        <v>-2.5999999999999978E-2</v>
+        <v>-1.4000000000000021E-2</v>
+      </c>
+      <c r="J16">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.3632958801498134E-2</v>
       </c>
       <c r="L16">
-        <v>7.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -3970,164 +10561,194 @@
         <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9">
-        <v>17.100000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="D17" s="9">
-        <v>24.9</v>
+        <v>33.4</v>
       </c>
       <c r="E17" s="9">
-        <v>9.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F17" s="9">
-        <v>20.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G17" s="9">
-        <v>7.5000000000000018</v>
+        <v>15.2</v>
       </c>
       <c r="H17" s="9">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="I17" s="11">
         <f>(H17-G17)*0.01</f>
-        <v>-3.5000000000000017E-2</v>
+        <v>-1.6999999999999994E-2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.7453183520599252E-2</v>
       </c>
       <c r="L17">
-        <v>5.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9">
-        <v>15.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D18" s="9">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="E18" s="9">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="F18" s="9">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="G18" s="9">
-        <v>6.8000000000000007</v>
+        <v>9.7999999999999989</v>
       </c>
       <c r="H18" s="9">
-        <v>3</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="I18" s="11">
         <f>(H18-G18)*0.01</f>
-        <v>-3.8000000000000006E-2</v>
+        <v>-2.4999999999999984E-2</v>
+      </c>
+      <c r="J18">
+        <v>4.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5.3682896379525592E-2</v>
       </c>
       <c r="L18">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9">
-        <v>76.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D19" s="9">
-        <v>74.400000000000006</v>
+        <v>24.9</v>
       </c>
       <c r="E19" s="9">
-        <v>16.100000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F19" s="9">
-        <v>19.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="G19" s="9">
-        <v>60.4</v>
+        <v>7.5000000000000018</v>
       </c>
       <c r="H19" s="9">
-        <v>54.800000000000004</v>
+        <v>4</v>
       </c>
       <c r="I19" s="11">
         <f>(H19-G19)*0.01</f>
-        <v>-5.5999999999999946E-2</v>
+        <v>-3.5000000000000017E-2</v>
+      </c>
+      <c r="J19">
+        <v>5.2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6.4918851435705374E-2</v>
       </c>
       <c r="L19">
-        <v>13.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
-        <v>13.4</v>
+        <v>76.5</v>
       </c>
       <c r="D20" s="9">
-        <v>22</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E20" s="9">
-        <v>9.1999999999999993</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F20" s="9">
-        <v>26.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G20" s="9">
-        <v>4.2000000000000011</v>
+        <v>60.4</v>
       </c>
       <c r="H20" s="9">
-        <v>-4.8000000000000007</v>
+        <v>54.800000000000004</v>
       </c>
       <c r="I20" s="11">
         <f>(H20-G20)*0.01</f>
-        <v>-9.0000000000000024E-2</v>
+        <v>-5.5999999999999946E-2</v>
+      </c>
+      <c r="J20">
+        <v>13.6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.16978776529338327</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15">
-        <v>48.4</v>
+        <v>13.4</v>
       </c>
       <c r="D21" s="15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E21" s="15">
-        <v>12.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F21" s="15">
-        <v>23.8</v>
+        <v>26.8</v>
       </c>
       <c r="G21" s="15">
-        <v>35.9</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="H21" s="15">
-        <v>24.2</v>
+        <v>-4.8000000000000007</v>
       </c>
       <c r="I21" s="16">
         <f>(H21-G21)*0.01</f>
-        <v>-0.11699999999999999</v>
+        <v>-9.0000000000000024E-2</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6.2421972534332092E-2</v>
       </c>
       <c r="L21">
-        <v>10.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
@@ -4135,6 +10756,11 @@
       <c r="I23" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L21" xr:uid="{FE9A7232-BB3C-429A-8270-B4661E76064D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
+      <sortCondition ref="L1:L21"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="I2:I21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4151,4 +10777,986 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB1BB0-2E60-4933-897F-1CDBECFD594F}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="10" style="23" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D2" s="9">
+        <v>70.7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="F2" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="G2" s="9">
+        <f>C2-E2</f>
+        <v>45.699999999999996</v>
+      </c>
+      <c r="H2" s="9">
+        <f>D2-F2</f>
+        <v>47.1</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="11">
+        <f>(H2-G2)/100</f>
+        <v>1.4000000000000058E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <f>L2</f>
+        <v>1.4000000000000058E-2</v>
+      </c>
+      <c r="N2">
+        <v>17.3</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2/SUM($N$2:$N$11)</f>
+        <v>0.13675889328063243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42.7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>48.2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="G3" s="9">
+        <f>C3-E3</f>
+        <v>26.700000000000003</v>
+      </c>
+      <c r="H3" s="9">
+        <f>D3-F3</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="11">
+        <f>(H3-G3)/100</f>
+        <v>2.6999999999999993E-2</v>
+      </c>
+      <c r="M3" s="11">
+        <f>L3</f>
+        <v>2.6999999999999993E-2</v>
+      </c>
+      <c r="N3">
+        <v>14.7</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O11" si="0">N3/SUM($N$2:$N$11)</f>
+        <v>0.11620553359683794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43.9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>49.4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="F4" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="G4" s="9">
+        <f>C4-E4</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H4" s="9">
+        <f>D4-F4</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="11">
+        <f>(H4-G4)/100</f>
+        <v>3.5999999999999942E-2</v>
+      </c>
+      <c r="M4" s="11">
+        <f>L4</f>
+        <v>3.5999999999999942E-2</v>
+      </c>
+      <c r="N4">
+        <v>11.5</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="G5" s="9">
+        <f>C5-E5</f>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="H5" s="9">
+        <f>D5-F5</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="11">
+        <f>(H5-G5)/100</f>
+        <v>-0.10200000000000004</v>
+      </c>
+      <c r="M5" s="11">
+        <f>L5</f>
+        <v>-0.10200000000000004</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
+        <v>51.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>55.1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="G6" s="9">
+        <f>C6-E6</f>
+        <v>31.4</v>
+      </c>
+      <c r="H6" s="9">
+        <f>D6-F6</f>
+        <v>32.5</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="11">
+        <f>(H6-G6)/100</f>
+        <v>1.1000000000000015E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <f>L6</f>
+        <v>1.1000000000000015E-2</v>
+      </c>
+      <c r="N6">
+        <v>13.6</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10750988142292491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12">
+        <v>20.6</v>
+      </c>
+      <c r="G7" s="9">
+        <f>C7-E7</f>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="H7" s="9">
+        <f>D7-F7</f>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="11">
+        <f>(H7-G7)/100</f>
+        <v>3.6999999999999957E-2</v>
+      </c>
+      <c r="M7" s="11">
+        <f>L7</f>
+        <v>3.6999999999999957E-2</v>
+      </c>
+      <c r="N7">
+        <v>10.5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3003952569169967E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43.2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>49.8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G8" s="9">
+        <f>C8-E8</f>
+        <v>23.900000000000002</v>
+      </c>
+      <c r="H8" s="9">
+        <f>D8-F8</f>
+        <v>31.199999999999996</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="11">
+        <f>(H8-G8)/100</f>
+        <v>7.299999999999994E-2</v>
+      </c>
+      <c r="M8" s="11">
+        <f>L8</f>
+        <v>7.299999999999994E-2</v>
+      </c>
+      <c r="N8">
+        <v>9.4</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4308300395256918E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9">
+        <v>24.7</v>
+      </c>
+      <c r="G9" s="9">
+        <f>C9-E9</f>
+        <v>44</v>
+      </c>
+      <c r="H9" s="9">
+        <f>D9-F9</f>
+        <v>44.3</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="11">
+        <f>(H9-G9)/100</f>
+        <v>2.9999999999999714E-3</v>
+      </c>
+      <c r="M9" s="11">
+        <f>L9</f>
+        <v>2.9999999999999714E-3</v>
+      </c>
+      <c r="N9">
+        <v>13.9</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10988142292490119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>63.8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>68.5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="G10" s="9">
+        <f>C10-E10</f>
+        <v>48.5</v>
+      </c>
+      <c r="H10" s="9">
+        <f>D10-F10</f>
+        <v>52.9</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="11">
+        <f>(H10-G10)/100</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="M10" s="11">
+        <f>L10</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="N10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13122529644268777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>28.4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>34.9</v>
+      </c>
+      <c r="E11" s="15">
+        <v>13.6</v>
+      </c>
+      <c r="F11" s="15">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <f>C11-E11</f>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="H11" s="9">
+        <f>D11-F11</f>
+        <v>14.5</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="11">
+        <f>(H11-G11)/100</f>
+        <v>-2.9999999999999892E-3</v>
+      </c>
+      <c r="M11" s="11">
+        <f>L11</f>
+        <v>-2.9999999999999892E-3</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3241106719367585E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N11" xr:uid="{74807C2E-DD8B-471F-AA70-B7CFC913D869}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
+      <sortCondition ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="M2:M11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF4343FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF4343FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E81595B-747E-44C3-BC93-722D019EAD85}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.15400000000000005</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11097099621689786</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-0.10200000000000004</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(C2,E2)</f>
+        <v>2.6000000000000009E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(D2,F2)</f>
+        <v>9.8963758978014155E-2</v>
+      </c>
+      <c r="I2" s="25">
+        <f>SQRT(ABS(C2-E2)^2+ABS(D2-F2)^2)</f>
+        <v>0.25712389034168609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <v>-0.11699999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12988650693568729</v>
+      </c>
+      <c r="E3" s="11">
+        <v>7.299999999999994E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.4308300395256918E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <f>AVERAGE(C3,E3)</f>
+        <v>-2.2000000000000026E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>AVERAGE(D3,F3)</f>
+        <v>0.1020974036654721</v>
+      </c>
+      <c r="I3" s="25">
+        <f>SQRT(ABS(C3-E3)^2+ABS(D3-F3)^2)</f>
+        <v>0.19796195857348634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9.1999999999999887E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.14856429463171036</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.1000000000000015E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.10750988142292491</v>
+      </c>
+      <c r="G4" s="11">
+        <f>AVERAGE(C4,E4)</f>
+        <v>5.1499999999999949E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(D4,F4)</f>
+        <v>0.12803708802731764</v>
+      </c>
+      <c r="I4" s="25">
+        <f>SQRT(ABS(C4-E4)^2+ABS(D4-F4)^2)</f>
+        <v>9.0810048144011446E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-5.5999999999999946E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.16978776529338327</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.4000000000000058E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13675889328063243</v>
+      </c>
+      <c r="G5" s="11">
+        <f>AVERAGE(C5,E5)</f>
+        <v>-2.0999999999999942E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>AVERAGE(D5,F5)</f>
+        <v>0.15327332928700785</v>
+      </c>
+      <c r="I5" s="25">
+        <f>SQRT(ABS(C5-E5)^2+ABS(D5-F5)^2)</f>
+        <v>7.7400945643026076E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.10899999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.11727616645649434</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.13122529644268777</v>
+      </c>
+      <c r="G6" s="11">
+        <f>AVERAGE(C6,E6)</f>
+        <v>7.6499999999999985E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f>AVERAGE(D6,F6)</f>
+        <v>0.12425073144959106</v>
+      </c>
+      <c r="I6" s="25">
+        <f>SQRT(ABS(C6-E6)^2+ABS(D6-F6)^2)</f>
+        <v>6.6479908448881908E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-3.9999999999999862E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.10718789407313997</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3.6999999999999957E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.3003952569169967E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <f>AVERAGE(C7,E7)</f>
+        <v>1.6499999999999987E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(D7,F7)</f>
+        <v>9.5095923321154963E-2</v>
+      </c>
+      <c r="I7" s="25">
+        <f>SQRT(ABS(C7-E7)^2+ABS(D7-F7)^2)</f>
+        <v>4.7601082200591179E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.13745271122320304</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2.6999999999999993E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.11620553359683794</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(C8,E8)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>AVERAGE(D8,F8)</f>
+        <v>0.12682912241002048</v>
+      </c>
+      <c r="I8" s="25">
+        <f>SQRT(ABS(C8-E8)^2+ABS(D8-F8)^2)</f>
+        <v>4.3536680593337734E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2.3999999999999914E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.13108614232209739</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3.5999999999999942E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <f>AVERAGE(C9,E9)</f>
+        <v>2.999999999999993E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f>AVERAGE(D9,F9)</f>
+        <v>0.11099761661559415</v>
+      </c>
+      <c r="I9" s="25">
+        <f>SQRT(ABS(C9-E9)^2+ABS(D9-F9)^2)</f>
+        <v>4.1930841396797258E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-1.6999999999999994E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.7453183520599252E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-2.9999999999999892E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.3241106719367585E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <f>AVERAGE(C10,E10)</f>
+        <v>-9.9999999999999915E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>AVERAGE(D10,F10)</f>
+        <v>5.0347145119983422E-2</v>
+      </c>
+      <c r="I10" s="25">
+        <f>SQRT(ABS(C10-E10)^2+ABS(D10-F10)^2)</f>
+        <v>2.9343090888752227E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.1000000000000086E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.13732833957553059</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.9999999999999714E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.10988142292490119</v>
+      </c>
+      <c r="G11" s="11">
+        <f>AVERAGE(C11,E11)</f>
+        <v>7.0000000000000288E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <f>AVERAGE(D11,F11)</f>
+        <v>0.12360488125021589</v>
+      </c>
+      <c r="I11" s="25">
+        <f>SQRT(ABS(C11-E11)^2+ABS(D11-F11)^2)</f>
+        <v>2.858904044606253E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I11" xr:uid="{DAC3F427-9BA1-4C9D-9541-C5818F87E1D3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+      <sortCondition descending="1" ref="I1:I11"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF4343FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF4343FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF4343FF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>